--- a/algorithim assingment.xlsx
+++ b/algorithim assingment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bsit fourth\Data Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDCDF87F-76BB-4188-9D7C-ACDFB6FA38A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12445AE-054E-49CB-8BEC-3E4B84A4D538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE523937-9D91-4AB1-8F13-216C19D26FA7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>X</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Y=x^3</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Y=log(X)</t>
@@ -212,7 +200,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3261373578302719E-2"/>
+          <c:y val="0.29208333333333336"/>
+          <c:w val="0.84396084864391951"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1915,6 +1913,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Y=2X^2+3X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2317,6 +2340,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Y=3X+2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2747,7 +2795,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12742454068241471"/>
+          <c:y val="0.10226851851851854"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -7184,16 +7242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7400,16 +7458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7736,8 +7794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC565AFF-804A-4227-8967-4E3E6DAAC237}">
   <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="M169" sqref="M169"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="N194" sqref="N194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8274,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8462,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -8650,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -8838,10 +8896,10 @@
         <v>0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -8862,11 +8920,11 @@
         <v>2</v>
       </c>
       <c r="B167" s="1">
-        <f t="shared" ref="B167:B185" si="4">A167^2</f>
+        <f t="shared" ref="B167:B230" si="4">A167^2</f>
         <v>4</v>
       </c>
       <c r="C167" s="1">
-        <f t="shared" ref="C167:C185" si="5">1000*A167</f>
+        <f t="shared" ref="C167:C230" si="5">1000*A167</f>
         <v>2000</v>
       </c>
       <c r="E167" s="1"/>
